--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myngu\Desktop\GIT\Frogger_to_the_max\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391CE027-9AC0-4EB8-A50C-C4C361B3EAC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786F3D1A-53F9-4B46-8E72-50C89B4236DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="18225" windowHeight="8865" xr2:uid="{1DAC1EE6-F3C8-4CA5-B6DA-A9CA82F18626}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{1DAC1EE6-F3C8-4CA5-B6DA-A9CA82F18626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>schedule</t>
   </si>
   <si>
-    <t>We agreed that we going to meet up 2pm every Friday until the project is due</t>
-  </si>
-  <si>
     <t>Sheridan</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">Create the top and bottom artifact </t>
+  </si>
+  <si>
+    <t>We agreed that we going to meet up 3:30  every Tuesday until the project is due</t>
   </si>
 </sst>
 </file>
@@ -270,29 +270,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E5856-C891-4BF8-B0A4-C56ADB4EBC85}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,40 +623,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -722,136 +722,136 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="N6" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="N6" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -861,7 +861,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -871,7 +871,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -881,7 +881,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -891,7 +891,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -901,7 +901,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -911,7 +911,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -921,7 +921,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -931,32 +931,32 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -972,7 +972,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L32" s="5"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myngu\Desktop\GIT\Frogger_to_the_max\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786F3D1A-53F9-4B46-8E72-50C89B4236DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C5377F-EF10-4999-B779-AB4977AF176B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{1DAC1EE6-F3C8-4CA5-B6DA-A9CA82F18626}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Tasks</t>
   </si>
@@ -66,9 +66,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>Undecided</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design </t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Create the font (.png) (32x32 pixels)</t>
   </si>
   <si>
-    <t>Timer</t>
-  </si>
-  <si>
     <t>Background (Top and Bottom)</t>
   </si>
   <si>
@@ -175,6 +169,15 @@
   </si>
   <si>
     <t>We agreed that we going to meet up 3:30  every Tuesday until the project is due</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>Everyone</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +242,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -252,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -293,6 +302,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E5856-C891-4BF8-B0A4-C56ADB4EBC85}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:L6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +636,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -642,7 +654,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -723,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -752,234 +764,267 @@
         <v>10</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="E19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="D17:E17"/>
+  <mergeCells count="24">
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="C6:L6"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myngu\Desktop\GIT\Frogger_to_the_max\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C5377F-EF10-4999-B779-AB4977AF176B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4B9EA1-1C16-4397-ABD9-2DD9BA527B95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{1DAC1EE6-F3C8-4CA5-B6DA-A9CA82F18626}"/>
   </bookViews>
@@ -276,35 +276,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,7 +623,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,40 +635,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -734,18 +734,18 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="N6" s="9" t="s">
         <v>8</v>
       </c>
@@ -785,19 +785,19 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -812,47 +812,47 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -863,13 +863,13 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -887,13 +887,13 @@
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -911,73 +911,73 @@
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="12"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="12"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -988,19 +988,19 @@
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1012,18 +1012,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E23:I23"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
@@ -1036,6 +1024,18 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myngu\Desktop\GIT\Frogger_to_the_max\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4B9EA1-1C16-4397-ABD9-2DD9BA527B95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD8A70-94AA-40D6-BE59-AC5138F1791C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{1DAC1EE6-F3C8-4CA5-B6DA-A9CA82F18626}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Tasks</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Everyone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Description: The player will control a frog vertically on the screen,  </t>
   </si>
 </sst>
 </file>
@@ -279,32 +282,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E5856-C891-4BF8-B0A4-C56ADB4EBC85}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,40 +638,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -734,18 +737,18 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
       <c r="N6" s="9" t="s">
         <v>8</v>
       </c>
@@ -776,19 +779,19 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -803,56 +806,56 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -863,49 +866,49 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -935,49 +938,49 @@
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="11"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="11"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="11"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="11"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -988,19 +991,19 @@
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1010,8 +1013,25 @@
         <v>48</v>
       </c>
     </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E23:I23"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
@@ -1024,18 +1044,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myngu\Desktop\GIT\Frogger_to_the_max\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD8A70-94AA-40D6-BE59-AC5138F1791C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96DE06-2B4E-4B21-8E2A-745F9F252D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{1DAC1EE6-F3C8-4CA5-B6DA-A9CA82F18626}"/>
   </bookViews>
@@ -180,7 +180,7 @@
     <t>Everyone</t>
   </si>
   <si>
-    <t xml:space="preserve">Game Description: The player will control a frog vertically on the screen,  </t>
+    <t>Game Description: A player will control a frog vertically across the screen, the goal is to reach the top of the screen while dodging obsticles. The player will have to complete 5 levels to reach the end game</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -308,6 +308,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,7 +629,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,8 +1016,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myngu\Desktop\GIT\Frogger_to_the_max\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96DE06-2B4E-4B21-8E2A-745F9F252D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081748D4-8739-4243-8C72-21D183CD2447}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{1DAC1EE6-F3C8-4CA5-B6DA-A9CA82F18626}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E5856-C891-4BF8-B0A4-C56ADB4EBC85}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,13 +1016,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>49</v>
       </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A34:L34"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L29"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myngu\Desktop\GIT\Frogger_to_the_max\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081748D4-8739-4243-8C72-21D183CD2447}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F67C2D-E5AE-464B-9045-302E78095758}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{1DAC1EE6-F3C8-4CA5-B6DA-A9CA82F18626}"/>
   </bookViews>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E5856-C891-4BF8-B0A4-C56ADB4EBC85}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:L34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>49</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myngu\Desktop\GIT\Frogger_to_the_max\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F67C2D-E5AE-464B-9045-302E78095758}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A874338E-C61A-486A-ABAB-C48F6F8038EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{1DAC1EE6-F3C8-4CA5-B6DA-A9CA82F18626}"/>
   </bookViews>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E5856-C891-4BF8-B0A4-C56ADB4EBC85}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:I25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
